--- a/src/main/resources/excel/8 Present Sentence.xlsx
+++ b/src/main/resources/excel/8 Present Sentence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Expressing Obligation" sheetId="1" state="visible" r:id="rId3"/>
@@ -1308,16 +1308,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1526,17 +1522,17 @@
     <tabColor rgb="FFFFF5CE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048530" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="53.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,7 +1542,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1557,7 +1553,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1568,7 +1564,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1579,7 +1575,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1590,7 +1586,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1601,7 +1597,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1612,7 +1608,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1623,7 +1619,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1634,7 +1630,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1645,7 +1641,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1656,7 +1652,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1667,7 +1663,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1678,7 +1674,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1689,7 +1685,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1700,33 +1696,9 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1747,14 +1719,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="58.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,9 +1770,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="54.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1782,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1821,7 +1793,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1832,7 +1804,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1843,7 +1815,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1854,7 +1826,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1865,7 +1837,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1876,7 +1848,7 @@
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1887,7 +1859,7 @@
       <c r="B8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1898,7 +1870,7 @@
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1909,7 +1881,7 @@
       <c r="B10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1920,7 +1892,7 @@
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1931,7 +1903,7 @@
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1962,7 +1934,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="48.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,7 +1944,7 @@
       <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1983,7 +1955,7 @@
       <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1994,7 +1966,7 @@
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2005,7 +1977,7 @@
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2016,7 +1988,7 @@
       <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2027,7 +1999,7 @@
       <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2038,7 +2010,7 @@
       <c r="B7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2049,7 +2021,7 @@
       <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2060,7 +2032,7 @@
       <c r="B9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2071,7 +2043,7 @@
       <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2082,7 +2054,7 @@
       <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2093,7 +2065,7 @@
       <c r="B12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2104,7 +2076,7 @@
       <c r="B13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2115,7 +2087,7 @@
       <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2126,7 +2098,7 @@
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2157,7 +2129,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,7 +2139,7 @@
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2178,7 +2150,7 @@
       <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2189,7 +2161,7 @@
       <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2200,7 +2172,7 @@
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2211,7 +2183,7 @@
       <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2222,7 +2194,7 @@
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2233,7 +2205,7 @@
       <c r="B7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2244,7 +2216,7 @@
       <c r="B8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2255,7 +2227,7 @@
       <c r="B9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2266,7 +2238,7 @@
       <c r="B10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2277,7 +2249,7 @@
       <c r="B11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2288,7 +2260,7 @@
       <c r="B12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2299,7 +2271,7 @@
       <c r="B13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2310,7 +2282,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2321,7 +2293,7 @@
       <c r="B15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2350,9 +2322,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="47.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2334,7 @@
       <c r="B1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2373,7 +2345,7 @@
       <c r="B2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2384,7 +2356,7 @@
       <c r="B3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2405,17 +2377,17 @@
     <tabColor rgb="FFFFF5CE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048530" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1048540" activeCellId="0" sqref="B1048540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="65.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,7 +2397,7 @@
       <c r="B1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2436,7 +2408,7 @@
       <c r="B2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2447,7 +2419,7 @@
       <c r="B3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2458,7 +2430,7 @@
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2469,7 +2441,7 @@
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2480,7 +2452,7 @@
       <c r="B6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2491,7 +2463,7 @@
       <c r="B7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2502,7 +2474,7 @@
       <c r="B8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2513,7 +2485,7 @@
       <c r="B9" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2524,7 +2496,7 @@
       <c r="B10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2535,7 +2507,7 @@
       <c r="B11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2546,7 +2518,7 @@
       <c r="B12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2557,7 +2529,7 @@
       <c r="B13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2568,7 +2540,7 @@
       <c r="B14" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2579,21 +2551,9 @@
       <c r="B15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2620,9 +2580,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="51.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="55.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2592,7 @@
       <c r="B1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2643,7 +2603,7 @@
       <c r="B2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2654,7 +2614,7 @@
       <c r="B3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2665,7 +2625,7 @@
       <c r="B4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2676,7 +2636,7 @@
       <c r="B5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2687,7 +2647,7 @@
       <c r="B6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2718,7 +2678,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="56.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,7 +2688,7 @@
       <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2739,7 +2699,7 @@
       <c r="B2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2750,7 +2710,7 @@
       <c r="B3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2761,7 +2721,7 @@
       <c r="B4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2772,7 +2732,7 @@
       <c r="B5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2783,7 +2743,7 @@
       <c r="B6" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2794,7 +2754,7 @@
       <c r="B7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2805,7 +2765,7 @@
       <c r="B8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2816,7 +2776,7 @@
       <c r="B9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2827,7 +2787,7 @@
       <c r="B10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2838,7 +2798,7 @@
       <c r="B11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2849,7 +2809,7 @@
       <c r="B12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2860,7 +2820,7 @@
       <c r="B13" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2871,7 +2831,7 @@
       <c r="B14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2882,7 +2842,7 @@
       <c r="B15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2913,7 +2873,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +2883,7 @@
       <c r="B1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2934,7 +2894,7 @@
       <c r="B2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2945,7 +2905,7 @@
       <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2956,7 +2916,7 @@
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2967,7 +2927,7 @@
       <c r="B5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2978,7 +2938,7 @@
       <c r="B6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2989,7 +2949,7 @@
       <c r="B7" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3000,7 +2960,7 @@
       <c r="B8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3011,7 +2971,7 @@
       <c r="B9" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3022,7 +2982,7 @@
       <c r="B10" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3033,7 +2993,7 @@
       <c r="B11" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3044,7 +3004,7 @@
       <c r="B12" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3055,7 +3015,7 @@
       <c r="B13" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3066,7 +3026,7 @@
       <c r="B14" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3077,7 +3037,7 @@
       <c r="B15" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>331</v>
       </c>
     </row>

--- a/src/main/resources/excel/8 Present Sentence.xlsx
+++ b/src/main/resources/excel/8 Present Sentence.xlsx
@@ -9,15 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="Expressing Obligation" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Congratulations and Best Wish-1" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Congratulations and Best Wishes" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Expressing Ability" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Talking about health and Illn-1" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Talking about health and Illnes" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Interrupting People2" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="Interrupting People" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="Expressing Disapointment" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="Giving bad news2" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Congratulations and Best Wishes" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Expressing Ability" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Talking about health and Illnes" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Interrupting People" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Expressing Disapointment" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Giving bad news2" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -166,6 +163,141 @@
     <t xml:space="preserve">aɪl hæv tu pɪk hɜr ʌp frʌm ði ˈɛrˌpɔrt</t>
   </si>
   <si>
+    <t xml:space="preserve">Congratulations and Best Wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicitaciones y los mejores deseos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ænd bɛst ˈwɪʃɪz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡreɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bien hecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɛl dʌn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please accept my warmest congratulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor acepte mis más calurosas felicitaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pliz ækˈsɛpt maɪ ˈwɔrməst kənˌɡræʧəˈleɪʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me offer you my congratulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déjame ofrecerte mis felicitaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛt mi ˈɔfər ju maɪ kənˌɡræʧəˈleɪʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd like to congratulate you on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me gustaría felicitarte por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪd laɪk tu kənˈɡræʧəˌleɪt ju ɑn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let me congratulate you on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déjame felicitarte por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛt mi kənˈɡræʧəˌleɪt ju ɑn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations on your promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidades por su promoción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ɑn jʊər prəˈmoʊʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations on your graduation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicitaciones en tu graduación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ɑn jʊər ˌɡræʤuˈeɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations You deserve it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidades te lo mereces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ju dɪˈzɜrv ɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was excellent. Congratulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso fue excelente. Felicidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæt wʌz ˈɛksələnt. kənˌɡræʧəˈleɪʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best wishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los mejores deseos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bɛst ˈwɪʃɪz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best wishes on your new job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis mejores deseos en su nuevo trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bɛst ˈwɪʃɪz ɑn jʊər nu ʤɑb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best of luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mejor de las suertes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bɛst ʌv lʌk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Good luck to you</t>
   </si>
   <si>
@@ -271,141 +403,6 @@
     <t xml:space="preserve">θæŋks fɔr jʊər kaɪnd wɜrdz</t>
   </si>
   <si>
-    <t xml:space="preserve">Congratulations and Best Wishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicitaciones y los mejores deseos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ænd bɛst ˈwɪʃɪz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɡreɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bien hecho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɛl dʌn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please accept my warmest congratulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por favor acepte mis más calurosas felicitaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pliz ækˈsɛpt maɪ ˈwɔrməst kənˌɡræʧəˈleɪʃənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let me offer you my congratulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déjame ofrecerte mis felicitaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lɛt mi ˈɔfər ju maɪ kənˌɡræʧəˈleɪʃənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'd like to congratulate you on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me gustaría felicitarte por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪd laɪk tu kənˈɡræʧəˌleɪt ju ɑn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let me congratulate you on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déjame felicitarte por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lɛt mi kənˈɡræʧəˌleɪt ju ɑn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations on your promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicidades por su promoción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ɑn jʊər prəˈmoʊʃən</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations on your graduation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicitaciones en tu graduación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ɑn jʊər ˌɡræʤuˈeɪʃən</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations You deserve it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicidades te lo mereces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kənˌɡræʧəˈleɪʃənz ju dɪˈzɜrv ɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That was excellent. Congratulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso fue excelente. Felicidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðæt wʌz ˈɛksələnt. kənˌɡræʧəˈleɪʃənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best wishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los mejores deseos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bɛst ˈwɪʃɪz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best wishes on your new job</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mis mejores deseos en su nuevo trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bɛst ˈwɪʃɪz ɑn jʊər nu ʤɑb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best of luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La mejor de las suertes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bɛst ʌv lʌk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expressing Ability</t>
   </si>
   <si>
@@ -541,6 +538,141 @@
     <t xml:space="preserve">aɪ wʌz nɑt ˈeɪbəl tu ˈvɪzət hɪm ˈjɛstərˌdeɪ</t>
   </si>
   <si>
+    <t xml:space="preserve">Talking about health and Illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hablar de salud y enfermedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈtɔkɪŋ əˈbaʊt hɛlθ ænd ˈɪlnəs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the problem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál es el problema?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʌts ðə ˈprɑbləm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are your symptoms?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son tus síntomas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑt ɑr jʊər ˈsɪmptəmz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are you feeling today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo te sientes hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ɑr ju ˈfilɪŋ təˈdeɪ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you feeling any better?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te sientes mejor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɑr ju ˈfilɪŋ ˈɛni ˈbɛtər?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any allergies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tienes alguna alergia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju hæv ˈɛni ˈælərʤiz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long have you been feeling like this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto tiempo te has sentido así?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ lɔŋ hæv ju bɪn ˈfilɪŋ laɪk ðɪs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any medicine to take?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene algún medicamento que tomar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju hæv ˈɛni ˈmɛdəsən tu teɪk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've got a slight headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo un leve dolor de cabeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪv ɡɑt ə slaɪt ˈhɛˌdeɪk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've got a sore throat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo un dolor de garganta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪv ɡɑt ə sɔr θroʊt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have a high blood pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo presión arterial alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ hæv ə haɪ blʌd ˈprɛʃər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have pain in my back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo dolor en mi espalda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ hæv peɪn ɪn maɪ bæk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm in a lot of pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo mucho dolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɪn ə lɑt ʌv peɪn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My head is spinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi cabeza da vueltas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maɪ hɛd ɪz ˈspɪnɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm having difficulty breathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo dificultad para respirar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ˈhævɪŋ ˈdɪfəkəlti ˈbriðɪŋ</t>
+  </si>
+  <si>
     <t xml:space="preserve">I have a stomach ache</t>
   </si>
   <si>
@@ -568,139 +700,139 @@
     <t xml:space="preserve">aɪm nɑt ˈfilɪŋ ˈvɛri wɛl</t>
   </si>
   <si>
-    <t xml:space="preserve">Talking about health and Illness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hablar de salud y enfermedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈtɔkɪŋ əˈbaʊt hɛlθ ænd ˈɪlnəs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's the problem?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuál es el problema?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wʌts ðə ˈprɑbləm?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are your symptoms?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuáles son tus síntomas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wɑt ɑr jʊər ˈsɪmptəmz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How are you feeling today?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cómo te sientes hoy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haʊ ɑr ju ˈfilɪŋ təˈdeɪ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you feeling any better?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Te sientes mejor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɑr ju ˈfilɪŋ ˈɛni ˈbɛtər?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any allergies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tienes alguna alergia?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju hæv ˈɛni ˈælərʤiz?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long have you been feeling like this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuánto tiempo te has sentido así?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haʊ lɔŋ hæv ju bɪn ˈfilɪŋ laɪk ðɪs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have any medicine to take?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Tiene algún medicamento que tomar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju hæv ˈɛni ˈmɛdəsən tu teɪk?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've got a slight headache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo un leve dolor de cabeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪv ɡɑt ə slaɪt ˈhɛˌdeɪk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've got a sore throat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo un dolor de garganta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪv ɡɑt ə sɔr θroʊt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have a high blood pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo presión arterial alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ hæv ə haɪ blʌd ˈprɛʃər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have pain in my back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo dolor en mi espalda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ hæv peɪn ɪn maɪ bæk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm in a lot of pain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo mucho dolor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm ɪn ə lɑt ʌv peɪn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My head is spinning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi cabeza da vueltas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maɪ hɛd ɪz ˈspɪnɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm having difficulty breathing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tengo dificultad para respirar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪm ˈhævɪŋ ˈdɪfəkəlti ˈbriðɪŋ</t>
+    <t xml:space="preserve">Interrupting People</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrumpir a la gente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌɪntəˈrʌptɪŋ ˈpipəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excuse me for interrupting, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disculpe por interrumpir, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪkˈskjus mi fɔr ˌɪntəˈrʌptɪŋ, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry for interrupting but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdón por interrumpir pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈsɑri fɔr ˌɪntəˈrʌptɪŋ bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May I interrupt for a minute?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo interrumpir por un minuto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meɪ aɪ ˌɪntəˈrʌpt fɔr ə ˈmɪnət?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May I say something here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo decir algo aquí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meɪ aɪ seɪ ˈsʌmθɪŋ hir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I stop you there for a moment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo detenerte allí por un momento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn aɪ stɑp ju ðɛr fɔr ə ˈmoʊmənt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just a moment, I'd like to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un momento, me gustaría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʤʌst ə ˈmoʊmənt, aɪd laɪk tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, Could I just mention that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento, ¿puedo mencionar eso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈsɑri, kʊd aɪ ʤʌst ˈmɛnʃən ðæt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't mean to intrude, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No quiero entrometerme, pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ doʊnt min tu ɪnˈtrud, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May I have a word?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedo decir algo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meɪ aɪ hæv ə wɜrd?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excuse me, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disculpame pero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪkˈskjus mi, bʌt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you mind if I interrupt you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Te importa si te interrumpo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju maɪnd ɪf aɪ ˌɪntəˈrʌpt ju?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, I didn't catch that, is it possible to repeat the last point?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento, no entendí eso, ¿es posible repetir el último punto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt kæʧ ðæt, ɪz ɪt ˈpɑsəbəl tu rɪˈpit ðə læst pɔɪnt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While that is an important point, it's also important to add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si bien ese es un punto importante, también es importante agregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waɪl ðæt ɪz ən ɪmˈpɔrtənt pɔɪnt, ɪts ˈɔlsoʊ ɪmˈpɔrtənt tu æd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don't mind, I'd like to mention something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no le importa, me gustaría mencionar algo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪf ju doʊnt maɪnd, aɪd laɪk tu ˈmɛnʃən ˈsʌmθɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">Sorry to butt in, but may I just ask</t>
@@ -755,141 +887,6 @@
   </si>
   <si>
     <t xml:space="preserve">kæn aɪ ʤʌst æd ˈsʌmθɪŋ hir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupting People</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrumpir a la gente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˌɪntəˈrʌptɪŋ ˈpipəl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excuse me for interrupting, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disculpe por interrumpir, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪkˈskjus mi fɔr ˌɪntəˈrʌptɪŋ, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry for interrupting but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perdón por interrumpir pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɑri fɔr ˌɪntəˈrʌptɪŋ bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May I interrupt for a minute?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Puedo interrumpir por un minuto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meɪ aɪ ˌɪntəˈrʌpt fɔr ə ˈmɪnət?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May I say something here?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Puedo decir algo aquí?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meɪ aɪ seɪ ˈsʌmθɪŋ hir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can I stop you there for a moment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Puedo detenerte allí por un momento?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kæn aɪ stɑp ju ðɛr fɔr ə ˈmoʊmənt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just a moment, I'd like to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un momento, me gustaría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʤʌst ə ˈmoʊmənt, aɪd laɪk tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, Could I just mention that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento, ¿puedo mencionar eso?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɑri, kʊd aɪ ʤʌst ˈmɛnʃən ðæt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don't mean to intrude, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No quiero entrometerme, pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aɪ doʊnt min tu ɪnˈtrud, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May I have a word?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Puedo decir algo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meɪ aɪ hæv ə wɜrd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excuse me, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disculpame pero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪkˈskjus mi, bʌt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you mind if I interrupt you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Te importa si te interrumpo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">du ju maɪnd ɪf aɪ ˌɪntəˈrʌpt ju?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, I didn't catch that, is it possible to repeat the last point?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo siento, no entendí eso, ¿es posible repetir el último punto?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ˈsɑri, aɪ ˈdɪdənt kæʧ ðæt, ɪz ɪt ˈpɑsəbəl tu rɪˈpit ðə læst pɔɪnt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While that is an important point, it's also important to add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si bien ese es un punto importante, también es importante agregar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waɪl ðæt ɪz ən ɪmˈpɔrtənt pɔɪnt, ɪts ˈɔlsoʊ ɪmˈpɔrtənt tu æd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you don't mind, I'd like to mention something</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si no le importa, me gustaría mencionar algo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ɪf ju doʊnt maɪnd, aɪd laɪk tu ˈmɛnʃən ˈsʌmθɪŋ</t>
   </si>
   <si>
     <t xml:space="preserve">Expressing Disapointment</t>
@@ -1711,223 +1708,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFF5CE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="58.06"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFF5CE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="54.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.37"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFF5CE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1939,166 +1729,298 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2113,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFF5CE"/>
@@ -2308,56 +2230,482 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFFF5CE"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="65.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFF5CE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="56.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2714,7 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2379,180 +2727,180 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048530" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1048540" activeCellId="0" sqref="B1048540"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="65.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>306</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>315</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>217</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>220</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2572,83 +2920,32 @@
     <tabColor rgb="FFFFF5CE"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="55.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="43.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="58.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2660,394 +2957,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFF5CE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="56.76"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFF5CE"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="44.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>